--- a/training/output/LRSADTLM/T/T0_T1.xlsx
+++ b/training/output/LRSADTLM/T/T0_T1.xlsx
@@ -447,74 +447,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.865</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="B2" t="n">
-        <v>2.01356173992157</v>
+        <v>2.023939065933228</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9375</v>
+        <v>0.925</v>
       </c>
       <c r="B3" t="n">
-        <v>1.657781281471252</v>
+        <v>1.66669237613678</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9725</v>
+        <v>0.97</v>
       </c>
       <c r="B4" t="n">
-        <v>1.536240234375</v>
+        <v>1.552724537849426</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9575</v>
+        <v>0.9475</v>
       </c>
       <c r="B5" t="n">
-        <v>1.544428901672363</v>
+        <v>1.546294260025024</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.975</v>
+        <v>0.9725</v>
       </c>
       <c r="B6" t="n">
-        <v>1.485966172218323</v>
+        <v>1.486594705581665</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9675</v>
+        <v>0.9625</v>
       </c>
       <c r="B7" t="n">
-        <v>1.446193814277649</v>
+        <v>1.448172955513001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="B8" t="n">
-        <v>1.459674162864685</v>
+        <v>1.460374264717102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.97</v>
+        <v>0.955</v>
       </c>
       <c r="B9" t="n">
-        <v>1.460662217140198</v>
+        <v>1.457219758033752</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.96</v>
+        <v>0.955</v>
       </c>
       <c r="B10" t="n">
-        <v>1.467023086547852</v>
+        <v>1.468987460136414</v>
       </c>
     </row>
     <row r="11">
@@ -522,135 +522,135 @@
         <v>0.975</v>
       </c>
       <c r="B11" t="n">
-        <v>1.427873301506043</v>
+        <v>1.431959595680237</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.97</v>
+        <v>0.9675</v>
       </c>
       <c r="B12" t="n">
-        <v>1.427763338088989</v>
+        <v>1.42215648651123</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.965</v>
+        <v>0.9625</v>
       </c>
       <c r="B13" t="n">
-        <v>1.421259560585022</v>
+        <v>1.417748641967773</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.975</v>
+        <v>0.955</v>
       </c>
       <c r="B14" t="n">
-        <v>1.415433073043823</v>
+        <v>1.413687562942505</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9775</v>
+        <v>0.9625</v>
       </c>
       <c r="B15" t="n">
-        <v>1.416724734306335</v>
+        <v>1.417696862220764</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.975</v>
+        <v>0.9675</v>
       </c>
       <c r="B16" t="n">
-        <v>1.440947170257568</v>
+        <v>1.44272349357605</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9725</v>
+        <v>0.975</v>
       </c>
       <c r="B17" t="n">
-        <v>1.417739295959473</v>
+        <v>1.417239475250244</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>1.426026735305786</v>
+        <v>1.429151020050049</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.965</v>
+        <v>0.9475</v>
       </c>
       <c r="B19" t="n">
-        <v>1.423341288566589</v>
+        <v>1.422779421806335</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9575</v>
+        <v>0.9475</v>
       </c>
       <c r="B20" t="n">
-        <v>1.417106680870056</v>
+        <v>1.415527176856995</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.955</v>
+        <v>0.9375</v>
       </c>
       <c r="B21" t="n">
-        <v>1.416034479141235</v>
+        <v>1.420654211044311</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.955</v>
+        <v>0.9425</v>
       </c>
       <c r="B22" t="n">
-        <v>1.407074208259583</v>
+        <v>1.407180542945862</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9675</v>
+        <v>0.9525</v>
       </c>
       <c r="B23" t="n">
-        <v>1.429896445274353</v>
+        <v>1.432642679214478</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9625</v>
+        <v>0.9525</v>
       </c>
       <c r="B24" t="n">
-        <v>1.40832145690918</v>
+        <v>1.407322473526001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.955</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="B25" t="n">
-        <v>1.420160517692566</v>
+        <v>1.421105008125305</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9575</v>
+        <v>0.9525</v>
       </c>
       <c r="B26" t="n">
-        <v>1.406388883590698</v>
+        <v>1.40764030456543</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9625</v>
+        <v>0.955</v>
       </c>
       <c r="B27" t="n">
-        <v>1.412678656578064</v>
+        <v>1.412273316383362</v>
       </c>
     </row>
     <row r="28">
@@ -658,295 +658,295 @@
         <v>0.9575</v>
       </c>
       <c r="B28" t="n">
-        <v>1.403001003265381</v>
+        <v>1.402996072769165</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.98</v>
+        <v>0.9775</v>
       </c>
       <c r="B29" t="n">
-        <v>1.415047473907471</v>
+        <v>1.416936836242676</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.975</v>
+        <v>0.9625</v>
       </c>
       <c r="B30" t="n">
-        <v>1.410089225769043</v>
+        <v>1.408781318664551</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.97</v>
+        <v>0.9575</v>
       </c>
       <c r="B31" t="n">
-        <v>1.404763469696045</v>
+        <v>1.40113290309906</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.96</v>
+        <v>0.9625</v>
       </c>
       <c r="B32" t="n">
-        <v>1.403743782043457</v>
+        <v>1.402064719200134</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.96</v>
+        <v>0.9725</v>
       </c>
       <c r="B33" t="n">
-        <v>1.398122625350952</v>
+        <v>1.398245892524719</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9625</v>
+        <v>0.9675</v>
       </c>
       <c r="B34" t="n">
-        <v>1.400743985176086</v>
+        <v>1.401207385063171</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9675</v>
+        <v>0.97</v>
       </c>
       <c r="B35" t="n">
-        <v>1.397194952964783</v>
+        <v>1.397063460350037</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.97</v>
+        <v>0.9725</v>
       </c>
       <c r="B36" t="n">
-        <v>1.403523902893066</v>
+        <v>1.400451254844665</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9675</v>
+        <v>0.9775</v>
       </c>
       <c r="B37" t="n">
-        <v>1.399808893203735</v>
+        <v>1.398994379043579</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.965</v>
+        <v>0.9775</v>
       </c>
       <c r="B38" t="n">
-        <v>1.412265157699585</v>
+        <v>1.414037375450134</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.975</v>
+        <v>0.9775</v>
       </c>
       <c r="B39" t="n">
-        <v>1.400200366973877</v>
+        <v>1.400045909881592</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="B40" t="n">
-        <v>1.418653225898743</v>
+        <v>1.413725872039795</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9525</v>
+        <v>0.9775</v>
       </c>
       <c r="B41" t="n">
-        <v>1.409958329200745</v>
+        <v>1.4132848072052</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.965</v>
+        <v>0.9775</v>
       </c>
       <c r="B42" t="n">
-        <v>1.393965210914612</v>
+        <v>1.393418531417847</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9625</v>
+        <v>0.9775</v>
       </c>
       <c r="B43" t="n">
-        <v>1.402989096641541</v>
+        <v>1.402164077758789</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.96</v>
+        <v>0.975</v>
       </c>
       <c r="B44" t="n">
-        <v>1.406038546562195</v>
+        <v>1.406913771629333</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.965</v>
+        <v>0.9775</v>
       </c>
       <c r="B45" t="n">
-        <v>1.40464638710022</v>
+        <v>1.40681565284729</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9625</v>
+        <v>0.9775</v>
       </c>
       <c r="B46" t="n">
-        <v>1.399835238456726</v>
+        <v>1.398245649337769</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9675</v>
+        <v>0.9775</v>
       </c>
       <c r="B47" t="n">
-        <v>1.397143588066101</v>
+        <v>1.397244052886963</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9675</v>
+        <v>0.9825</v>
       </c>
       <c r="B48" t="n">
-        <v>1.398904523849487</v>
+        <v>1.399352960586548</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9675</v>
+        <v>0.9775</v>
       </c>
       <c r="B49" t="n">
-        <v>1.397575926780701</v>
+        <v>1.396867108345032</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9675</v>
+        <v>0.98</v>
       </c>
       <c r="B50" t="n">
-        <v>1.395983819961548</v>
+        <v>1.396006526947021</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9725</v>
+        <v>0.9825</v>
       </c>
       <c r="B51" t="n">
-        <v>1.397330160140991</v>
+        <v>1.398370633125305</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9725</v>
+        <v>0.985</v>
       </c>
       <c r="B52" t="n">
-        <v>1.397499747276306</v>
+        <v>1.397417345046997</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.975</v>
+        <v>0.9875</v>
       </c>
       <c r="B53" t="n">
-        <v>1.398516712188721</v>
+        <v>1.398747320175171</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.965</v>
+        <v>0.9775</v>
       </c>
       <c r="B54" t="n">
-        <v>1.395068950653076</v>
+        <v>1.399246301651001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.96</v>
+        <v>0.9725</v>
       </c>
       <c r="B55" t="n">
-        <v>1.392880873680115</v>
+        <v>1.39386926651001</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="B56" t="n">
-        <v>1.394515748023987</v>
+        <v>1.3943274974823</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="B57" t="n">
-        <v>1.393784332275391</v>
+        <v>1.394480004310608</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9625</v>
+        <v>0.97</v>
       </c>
       <c r="B58" t="n">
-        <v>1.392750105857849</v>
+        <v>1.393206996917725</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.965</v>
+        <v>0.97</v>
       </c>
       <c r="B59" t="n">
-        <v>1.394004497528076</v>
+        <v>1.394435653686523</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9675</v>
+        <v>0.985</v>
       </c>
       <c r="B60" t="n">
-        <v>1.407692852020264</v>
+        <v>1.423393225669861</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.965</v>
+        <v>0.9775</v>
       </c>
       <c r="B61" t="n">
-        <v>1.40070198059082</v>
+        <v>1.405951457023621</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9675</v>
+        <v>0.97</v>
       </c>
       <c r="B62" t="n">
-        <v>1.393307676315308</v>
+        <v>1.396384153366089</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.965</v>
+        <v>0.96</v>
       </c>
       <c r="B63" t="n">
-        <v>1.392551860809326</v>
+        <v>1.394723806381226</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.965</v>
+        <v>0.9625</v>
       </c>
       <c r="B64" t="n">
-        <v>1.390540995597839</v>
+        <v>1.391465215682983</v>
       </c>
     </row>
     <row r="65">
@@ -954,31 +954,31 @@
         <v>0.965</v>
       </c>
       <c r="B65" t="n">
-        <v>1.393006119728088</v>
+        <v>1.394567070007324</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.965</v>
+        <v>0.9675</v>
       </c>
       <c r="B66" t="n">
-        <v>1.391024980545044</v>
+        <v>1.391416931152344</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.965</v>
+        <v>0.9675</v>
       </c>
       <c r="B67" t="n">
-        <v>1.391546015739441</v>
+        <v>1.392322969436645</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.965</v>
+        <v>0.9675</v>
       </c>
       <c r="B68" t="n">
-        <v>1.393047728538513</v>
+        <v>1.393574690818787</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>0.9675</v>
       </c>
       <c r="B69" t="n">
-        <v>1.389987015724182</v>
+        <v>1.390526027679443</v>
       </c>
     </row>
     <row r="70">
@@ -994,255 +994,255 @@
         <v>0.9675</v>
       </c>
       <c r="B70" t="n">
-        <v>1.39085958480835</v>
+        <v>1.391587767601013</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9675</v>
+        <v>0.9725</v>
       </c>
       <c r="B71" t="n">
-        <v>1.390803427696228</v>
+        <v>1.391104612350464</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9675</v>
+        <v>0.9725</v>
       </c>
       <c r="B72" t="n">
-        <v>1.391351418495178</v>
+        <v>1.391587901115418</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9625</v>
+        <v>0.97</v>
       </c>
       <c r="B73" t="n">
-        <v>1.398540654182434</v>
+        <v>1.401191868782043</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9675</v>
+        <v>0.975</v>
       </c>
       <c r="B74" t="n">
-        <v>1.391601948738098</v>
+        <v>1.392034916877747</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.9675</v>
+        <v>0.98</v>
       </c>
       <c r="B75" t="n">
-        <v>1.391514210700989</v>
+        <v>1.393612475395203</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9675</v>
+        <v>0.9775</v>
       </c>
       <c r="B76" t="n">
-        <v>1.390362753868103</v>
+        <v>1.39203417301178</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9675</v>
+        <v>0.975</v>
       </c>
       <c r="B77" t="n">
-        <v>1.389612946510315</v>
+        <v>1.390186033248901</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9675</v>
+        <v>0.975</v>
       </c>
       <c r="B78" t="n">
-        <v>1.390746755599976</v>
+        <v>1.391014194488525</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.97</v>
+        <v>0.975</v>
       </c>
       <c r="B79" t="n">
-        <v>1.392530045509338</v>
+        <v>1.392226929664612</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.97</v>
+        <v>0.975</v>
       </c>
       <c r="B80" t="n">
-        <v>1.391883511543274</v>
+        <v>1.392157273292542</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.97</v>
+        <v>0.975</v>
       </c>
       <c r="B81" t="n">
-        <v>1.391186294555664</v>
+        <v>1.391618494987488</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.97</v>
+        <v>0.975</v>
       </c>
       <c r="B82" t="n">
-        <v>1.390887532234192</v>
+        <v>1.390882177352905</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.97</v>
+        <v>0.975</v>
       </c>
       <c r="B83" t="n">
-        <v>1.390314102172852</v>
+        <v>1.390484528541565</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.97</v>
+        <v>0.975</v>
       </c>
       <c r="B84" t="n">
-        <v>1.389362940788269</v>
+        <v>1.389488573074341</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9475</v>
+        <v>0.975</v>
       </c>
       <c r="B85" t="n">
-        <v>1.394112820625305</v>
+        <v>1.391770539283752</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.9475</v>
+        <v>0.97</v>
       </c>
       <c r="B86" t="n">
-        <v>1.392527432441711</v>
+        <v>1.391857314109802</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9625</v>
+        <v>0.97</v>
       </c>
       <c r="B87" t="n">
-        <v>1.392740287780762</v>
+        <v>1.391407327651978</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9525</v>
+        <v>0.9625</v>
       </c>
       <c r="B88" t="n">
-        <v>1.417564401626587</v>
+        <v>1.402268385887146</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.965</v>
+        <v>0.955</v>
       </c>
       <c r="B89" t="n">
-        <v>1.393761649131775</v>
+        <v>1.392435259819031</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.965</v>
+        <v>0.95</v>
       </c>
       <c r="B90" t="n">
-        <v>1.390310735702515</v>
+        <v>1.390100951194763</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9675</v>
+        <v>0.95</v>
       </c>
       <c r="B91" t="n">
-        <v>1.392278571128845</v>
+        <v>1.392193541526795</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9675</v>
+        <v>0.955</v>
       </c>
       <c r="B92" t="n">
-        <v>1.390581712722778</v>
+        <v>1.389974579811096</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.97</v>
+        <v>0.955</v>
       </c>
       <c r="B93" t="n">
-        <v>1.391593914031982</v>
+        <v>1.391836457252502</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="B94" t="n">
-        <v>1.407142343521118</v>
+        <v>1.391994390487671</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.97</v>
+        <v>0.955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.391197538375855</v>
+        <v>1.389540305137634</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.97</v>
+        <v>0.9575</v>
       </c>
       <c r="B96" t="n">
-        <v>1.394564399719238</v>
+        <v>1.393952775001526</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9775</v>
+        <v>0.9575</v>
       </c>
       <c r="B97" t="n">
-        <v>1.39663496017456</v>
+        <v>1.392250142097473</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.985</v>
+        <v>0.96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.394575242996216</v>
+        <v>1.392874360084534</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.985</v>
+        <v>0.965</v>
       </c>
       <c r="B99" t="n">
-        <v>1.393397769927978</v>
+        <v>1.392506928443909</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9825</v>
+        <v>0.965</v>
       </c>
       <c r="B100" t="n">
-        <v>1.390001182556152</v>
+        <v>1.389411816596985</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.98</v>
+        <v>0.9625</v>
       </c>
       <c r="B101" t="n">
-        <v>1.391548023223877</v>
+        <v>1.390836396217346</v>
       </c>
     </row>
   </sheetData>

--- a/training/output/LRSADTLM/T/T0_T1.xlsx
+++ b/training/output/LRSADTLM/T/T0_T1.xlsx
@@ -447,218 +447,218 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8774999999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>2.023939065933228</v>
+        <v>1.877241034507751</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.925</v>
+        <v>0.9675</v>
       </c>
       <c r="B3" t="n">
-        <v>1.66669237613678</v>
+        <v>1.618240456581116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.97</v>
+        <v>0.9775</v>
       </c>
       <c r="B4" t="n">
-        <v>1.552724537849426</v>
+        <v>1.520380001068115</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9475</v>
+        <v>0.9625</v>
       </c>
       <c r="B5" t="n">
-        <v>1.546294260025024</v>
+        <v>1.530138468742371</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9725</v>
+        <v>0.98</v>
       </c>
       <c r="B6" t="n">
-        <v>1.486594705581665</v>
+        <v>1.474226069450378</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9625</v>
+        <v>0.97</v>
       </c>
       <c r="B7" t="n">
-        <v>1.448172955513001</v>
+        <v>1.439469742774963</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.97</v>
+        <v>0.975</v>
       </c>
       <c r="B8" t="n">
-        <v>1.460374264717102</v>
+        <v>1.455929861068726</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.955</v>
+        <v>0.975</v>
       </c>
       <c r="B9" t="n">
-        <v>1.457219758033752</v>
+        <v>1.458695073127747</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.955</v>
+        <v>0.97</v>
       </c>
       <c r="B10" t="n">
-        <v>1.468987460136414</v>
+        <v>1.475618176460266</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.975</v>
+        <v>0.98</v>
       </c>
       <c r="B11" t="n">
-        <v>1.431959595680237</v>
+        <v>1.429027786254883</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9675</v>
+        <v>0.9725</v>
       </c>
       <c r="B12" t="n">
-        <v>1.42215648651123</v>
+        <v>1.420554418563843</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9625</v>
+        <v>0.9775</v>
       </c>
       <c r="B13" t="n">
-        <v>1.417748641967773</v>
+        <v>1.417229118347168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.955</v>
+        <v>0.97</v>
       </c>
       <c r="B14" t="n">
-        <v>1.413687562942505</v>
+        <v>1.414993581771851</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9625</v>
+        <v>0.975</v>
       </c>
       <c r="B15" t="n">
-        <v>1.417696862220764</v>
+        <v>1.414061212539673</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9675</v>
+        <v>0.9725</v>
       </c>
       <c r="B16" t="n">
-        <v>1.44272349357605</v>
+        <v>1.431631932258606</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.975</v>
+        <v>0.97</v>
       </c>
       <c r="B17" t="n">
-        <v>1.417239475250244</v>
+        <v>1.419271593093872</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.955</v>
       </c>
       <c r="B18" t="n">
-        <v>1.429151020050049</v>
+        <v>1.427883377075195</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9475</v>
+        <v>0.9675</v>
       </c>
       <c r="B19" t="n">
-        <v>1.422779421806335</v>
+        <v>1.418150873184204</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9475</v>
+        <v>0.9675</v>
       </c>
       <c r="B20" t="n">
-        <v>1.415527176856995</v>
+        <v>1.41644636631012</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9375</v>
+        <v>0.955</v>
       </c>
       <c r="B21" t="n">
-        <v>1.420654211044311</v>
+        <v>1.421991047859192</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9425</v>
+        <v>0.9475</v>
       </c>
       <c r="B22" t="n">
-        <v>1.407180542945862</v>
+        <v>1.407373542785645</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9525</v>
+        <v>0.975</v>
       </c>
       <c r="B23" t="n">
-        <v>1.432642679214478</v>
+        <v>1.435604600906372</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9525</v>
+        <v>0.9725</v>
       </c>
       <c r="B24" t="n">
-        <v>1.407322473526001</v>
+        <v>1.41021520614624</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="B25" t="n">
-        <v>1.421105008125305</v>
+        <v>1.429832229614258</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9525</v>
+        <v>0.9725</v>
       </c>
       <c r="B26" t="n">
-        <v>1.40764030456543</v>
+        <v>1.410568585395813</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.955</v>
+        <v>0.9675</v>
       </c>
       <c r="B27" t="n">
-        <v>1.412273316383362</v>
+        <v>1.412217473983765</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9575</v>
+        <v>0.975</v>
       </c>
       <c r="B28" t="n">
-        <v>1.402996072769165</v>
+        <v>1.402472314834595</v>
       </c>
     </row>
     <row r="29">
@@ -666,95 +666,95 @@
         <v>0.9775</v>
       </c>
       <c r="B29" t="n">
-        <v>1.416936836242676</v>
+        <v>1.416070713996887</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9625</v>
+        <v>0.975</v>
       </c>
       <c r="B30" t="n">
-        <v>1.408781318664551</v>
+        <v>1.409990491867065</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9575</v>
+        <v>0.9775</v>
       </c>
       <c r="B31" t="n">
-        <v>1.40113290309906</v>
+        <v>1.402013063430786</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9625</v>
+        <v>0.98</v>
       </c>
       <c r="B32" t="n">
-        <v>1.402064719200134</v>
+        <v>1.403249578475952</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9725</v>
+        <v>0.975</v>
       </c>
       <c r="B33" t="n">
-        <v>1.398245892524719</v>
+        <v>1.398748478889465</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9675</v>
+        <v>0.9725</v>
       </c>
       <c r="B34" t="n">
-        <v>1.401207385063171</v>
+        <v>1.399627046585083</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.97</v>
+        <v>0.975</v>
       </c>
       <c r="B35" t="n">
-        <v>1.397063460350037</v>
+        <v>1.396635193824768</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9725</v>
+        <v>0.9775</v>
       </c>
       <c r="B36" t="n">
-        <v>1.400451254844665</v>
+        <v>1.400178723335266</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9775</v>
+        <v>0.975</v>
       </c>
       <c r="B37" t="n">
-        <v>1.398994379043579</v>
+        <v>1.397994613647461</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9775</v>
+        <v>0.95</v>
       </c>
       <c r="B38" t="n">
-        <v>1.414037375450134</v>
+        <v>1.424367561340332</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9775</v>
+        <v>0.965</v>
       </c>
       <c r="B39" t="n">
-        <v>1.400045909881592</v>
+        <v>1.399322595596314</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.98</v>
+        <v>0.975</v>
       </c>
       <c r="B40" t="n">
-        <v>1.413725872039795</v>
+        <v>1.411409969329834</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>0.9775</v>
       </c>
       <c r="B41" t="n">
-        <v>1.4132848072052</v>
+        <v>1.41172125339508</v>
       </c>
     </row>
     <row r="42">
@@ -770,47 +770,47 @@
         <v>0.9775</v>
       </c>
       <c r="B42" t="n">
-        <v>1.393418531417847</v>
+        <v>1.392940473556519</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9775</v>
+        <v>0.9725</v>
       </c>
       <c r="B43" t="n">
-        <v>1.402164077758789</v>
+        <v>1.403262777328491</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.975</v>
+        <v>0.9725</v>
       </c>
       <c r="B44" t="n">
-        <v>1.406913771629333</v>
+        <v>1.400769166946411</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9775</v>
+        <v>0.975</v>
       </c>
       <c r="B45" t="n">
-        <v>1.40681565284729</v>
+        <v>1.401596403121948</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9775</v>
+        <v>0.9725</v>
       </c>
       <c r="B46" t="n">
-        <v>1.398245649337769</v>
+        <v>1.400933499336243</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9775</v>
+        <v>0.985</v>
       </c>
       <c r="B47" t="n">
-        <v>1.397244052886963</v>
+        <v>1.398389167785645</v>
       </c>
     </row>
     <row r="48">
@@ -818,15 +818,15 @@
         <v>0.9825</v>
       </c>
       <c r="B48" t="n">
-        <v>1.399352960586548</v>
+        <v>1.399118685722351</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9775</v>
+        <v>0.9825</v>
       </c>
       <c r="B49" t="n">
-        <v>1.396867108345032</v>
+        <v>1.39713701248169</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>0.98</v>
       </c>
       <c r="B50" t="n">
-        <v>1.396006526947021</v>
+        <v>1.395679206848145</v>
       </c>
     </row>
     <row r="51">
@@ -842,39 +842,39 @@
         <v>0.9825</v>
       </c>
       <c r="B51" t="n">
-        <v>1.398370633125305</v>
+        <v>1.398137235641479</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.985</v>
+        <v>0.98</v>
       </c>
       <c r="B52" t="n">
-        <v>1.397417345046997</v>
+        <v>1.395649938583374</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9875</v>
+        <v>0.9775</v>
       </c>
       <c r="B53" t="n">
-        <v>1.398747320175171</v>
+        <v>1.398584847450256</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9775</v>
+        <v>0.965</v>
       </c>
       <c r="B54" t="n">
-        <v>1.399246301651001</v>
+        <v>1.402693123817444</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9725</v>
+        <v>0.9675</v>
       </c>
       <c r="B55" t="n">
-        <v>1.39386926651001</v>
+        <v>1.394416995048523</v>
       </c>
     </row>
     <row r="56">
@@ -882,119 +882,119 @@
         <v>0.97</v>
       </c>
       <c r="B56" t="n">
-        <v>1.3943274974823</v>
+        <v>1.394069819450378</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.97</v>
+        <v>0.975</v>
       </c>
       <c r="B57" t="n">
-        <v>1.394480004310608</v>
+        <v>1.394047493934631</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.97</v>
+        <v>0.9775</v>
       </c>
       <c r="B58" t="n">
-        <v>1.393206996917725</v>
+        <v>1.392748022079468</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.97</v>
+        <v>0.9775</v>
       </c>
       <c r="B59" t="n">
-        <v>1.394435653686523</v>
+        <v>1.393838672637939</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.985</v>
+        <v>0.9775</v>
       </c>
       <c r="B60" t="n">
-        <v>1.423393225669861</v>
+        <v>1.406521410942078</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9775</v>
+        <v>0.975</v>
       </c>
       <c r="B61" t="n">
-        <v>1.405951457023621</v>
+        <v>1.406866836547852</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.97</v>
+        <v>0.9825</v>
       </c>
       <c r="B62" t="n">
-        <v>1.396384153366089</v>
+        <v>1.396757531166077</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="B63" t="n">
-        <v>1.394723806381226</v>
+        <v>1.392987012863159</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9625</v>
+        <v>0.97</v>
       </c>
       <c r="B64" t="n">
-        <v>1.391465215682983</v>
+        <v>1.391038761138916</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.965</v>
+        <v>0.97</v>
       </c>
       <c r="B65" t="n">
-        <v>1.394567070007324</v>
+        <v>1.393755717277527</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9675</v>
+        <v>0.97</v>
       </c>
       <c r="B66" t="n">
-        <v>1.391416931152344</v>
+        <v>1.391026935577393</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9675</v>
+        <v>0.97</v>
       </c>
       <c r="B67" t="n">
-        <v>1.392322969436645</v>
+        <v>1.391679601669312</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9675</v>
+        <v>0.97</v>
       </c>
       <c r="B68" t="n">
-        <v>1.393574690818787</v>
+        <v>1.3926389503479</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9675</v>
+        <v>0.97</v>
       </c>
       <c r="B69" t="n">
-        <v>1.390526027679443</v>
+        <v>1.389987120628357</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.9675</v>
+        <v>0.97</v>
       </c>
       <c r="B70" t="n">
-        <v>1.391587767601013</v>
+        <v>1.390917649269104</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>0.9725</v>
       </c>
       <c r="B71" t="n">
-        <v>1.391104612350464</v>
+        <v>1.390834197998047</v>
       </c>
     </row>
     <row r="72">
@@ -1010,39 +1010,39 @@
         <v>0.9725</v>
       </c>
       <c r="B72" t="n">
-        <v>1.391587901115418</v>
+        <v>1.391123366355896</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.97</v>
+        <v>0.9725</v>
       </c>
       <c r="B73" t="n">
-        <v>1.401191868782043</v>
+        <v>1.401352887153625</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.975</v>
+        <v>0.9725</v>
       </c>
       <c r="B74" t="n">
-        <v>1.392034916877747</v>
+        <v>1.391543831825256</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.98</v>
+        <v>0.975</v>
       </c>
       <c r="B75" t="n">
-        <v>1.393612475395203</v>
+        <v>1.391060757637024</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9775</v>
+        <v>0.975</v>
       </c>
       <c r="B76" t="n">
-        <v>1.39203417301178</v>
+        <v>1.389941062927246</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>0.975</v>
       </c>
       <c r="B77" t="n">
-        <v>1.390186033248901</v>
+        <v>1.389563312530518</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>0.975</v>
       </c>
       <c r="B78" t="n">
-        <v>1.391014194488525</v>
+        <v>1.390458130836487</v>
       </c>
     </row>
     <row r="79">
@@ -1066,15 +1066,15 @@
         <v>0.975</v>
       </c>
       <c r="B79" t="n">
-        <v>1.392226929664612</v>
+        <v>1.390603127479553</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.975</v>
+        <v>0.9725</v>
       </c>
       <c r="B80" t="n">
-        <v>1.392157273292542</v>
+        <v>1.391365342140198</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>0.975</v>
       </c>
       <c r="B81" t="n">
-        <v>1.391618494987488</v>
+        <v>1.391023330688477</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>0.975</v>
       </c>
       <c r="B82" t="n">
-        <v>1.390882177352905</v>
+        <v>1.390690393447876</v>
       </c>
     </row>
     <row r="83">
@@ -1098,103 +1098,103 @@
         <v>0.975</v>
       </c>
       <c r="B83" t="n">
-        <v>1.390484528541565</v>
+        <v>1.389840693473816</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.975</v>
+        <v>0.9775</v>
       </c>
       <c r="B84" t="n">
-        <v>1.389488573074341</v>
+        <v>1.389146070480347</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.975</v>
+        <v>0.97</v>
       </c>
       <c r="B85" t="n">
-        <v>1.391770539283752</v>
+        <v>1.393804349899292</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.97</v>
+        <v>0.9675</v>
       </c>
       <c r="B86" t="n">
-        <v>1.391857314109802</v>
+        <v>1.392156672477722</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.97</v>
+        <v>0.9675</v>
       </c>
       <c r="B87" t="n">
-        <v>1.391407327651978</v>
+        <v>1.392082028388977</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9625</v>
+        <v>0.965</v>
       </c>
       <c r="B88" t="n">
-        <v>1.402268385887146</v>
+        <v>1.401124901771545</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.955</v>
+        <v>0.96</v>
       </c>
       <c r="B89" t="n">
-        <v>1.392435259819031</v>
+        <v>1.391968851089477</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.95</v>
+        <v>0.9625</v>
       </c>
       <c r="B90" t="n">
-        <v>1.390100951194763</v>
+        <v>1.389779844284058</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.95</v>
+        <v>0.9625</v>
       </c>
       <c r="B91" t="n">
-        <v>1.392193541526795</v>
+        <v>1.39114405632019</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.955</v>
+        <v>0.965</v>
       </c>
       <c r="B92" t="n">
-        <v>1.389974579811096</v>
+        <v>1.389889874458313</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.955</v>
+        <v>0.965</v>
       </c>
       <c r="B93" t="n">
-        <v>1.391836457252502</v>
+        <v>1.393410868644714</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.96</v>
+        <v>0.955</v>
       </c>
       <c r="B94" t="n">
-        <v>1.391994390487671</v>
+        <v>1.400049262046814</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.955</v>
+        <v>0.9575</v>
       </c>
       <c r="B95" t="n">
-        <v>1.389540305137634</v>
+        <v>1.389606776237488</v>
       </c>
     </row>
     <row r="96">
@@ -1202,47 +1202,47 @@
         <v>0.9575</v>
       </c>
       <c r="B96" t="n">
-        <v>1.393952775001526</v>
+        <v>1.394931969642639</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9575</v>
+        <v>0.975</v>
       </c>
       <c r="B97" t="n">
-        <v>1.392250142097473</v>
+        <v>1.394277992248535</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.96</v>
+        <v>0.9775</v>
       </c>
       <c r="B98" t="n">
-        <v>1.392874360084534</v>
+        <v>1.393286151885986</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.965</v>
+        <v>0.98</v>
       </c>
       <c r="B99" t="n">
-        <v>1.392506928443909</v>
+        <v>1.392590279579163</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.965</v>
+        <v>0.98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.389411816596985</v>
+        <v>1.389701766967773</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9625</v>
+        <v>0.98</v>
       </c>
       <c r="B101" t="n">
-        <v>1.390836396217346</v>
+        <v>1.391110138893128</v>
       </c>
     </row>
   </sheetData>
